--- a/Datos/Database by set/Set with text box/Xlsx sets/Magic Origins Clash Pack (CP3).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Magic Origins Clash Pack (CP3).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,238 +444,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dromoka, the Eternal</t>
+          <t>('Dromoka, the Eternal', ['{3}{G}{W}', 'Legendary Creature — Dragon', 'Flying', 'Whenever a Dragon you control attacks, bolster 2. (Choose a creature with the least toughness among creatures you control and put two +1/+1 counters on it.)', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{3}{G}{W}</t>
+          <t>('Honored Hierarch', ['{G}', 'Creature — Human Druid', 'Renown 1 (When this creature deals combat damage to a player, if it isn’t renowned, put a +1/+1 counter on it and it becomes renowned.)', 'As long as Honored Hierarch is renowned, it has vigilance and “{T}: Add one mana of any color.”', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Legendary Creature — Dragon</t>
+          <t>('Sandsteppe Citadel', ['Land', 'Sandsteppe Citadel enters the battlefield tapped.', '{T}: Add {W}, {B}, or {G}.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>('Seeker of the Way', ['{1}{W}', 'Creature — Human Warrior', 'Prowess (Whenever you cast a noncreature spell, this creature gets +1/+1 until end of turn.)', 'Whenever you cast a noncreature spell, Seeker of the Way gains lifelink until end of turn.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Whenever a Dragon you control attacks, bolster 2. (Choose a creature with the least toughness among creatures you control and put two +1/+1 counters on it.)</t>
+          <t>('Siege Rhino', ['{1}{W}{B}{G}', 'Creature — Rhino', 'Trample', 'When Siege Rhino enters the battlefield, each opponent loses 3 life and you gain 3 life.', '4/5'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Honored Hierarch</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Creature — Human Druid</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Renown 1 (When this creature deals combat damage to a player, if it isn’t renowned, put a +1/+1 counter on it and it becomes renowned.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>As long as Honored Hierarch is renowned, it has vigilance and “{T}: Add one mana of any color.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Sandsteppe Citadel</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Land</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Sandsteppe Citadel enters the battlefield tapped.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>{T}: Add {W}, {B}, or {G}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Seeker of the Way</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>{1}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Creature — Human Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Prowess (Whenever you cast a noncreature spell, this creature gets +1/+1 until end of turn.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Whenever you cast a noncreature spell, Seeker of the Way gains lifelink until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Siege Rhino</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>{1}{W}{B}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Creature — Rhino</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Trample</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>When Siege Rhino enters the battlefield, each opponent loses 3 life and you gain 3 life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>4/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Valorous Stance</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>{1}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Choose one —</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>• Target creature gains indestructible until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>• Destroy target creature with toughness 4 or greater.</t>
+          <t>('Valorous Stance', ['{1}{W}', 'Instant', 'Choose one —', '• Target creature gains indestructible until end of turn.', '• Destroy target creature with toughness 4 or greater.'])</t>
         </is>
       </c>
     </row>
